--- a/data/trans_bre/P36B08_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 13,31</t>
+          <t>-8,35; 13,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 22,46</t>
+          <t>2,47; 22,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 13,33</t>
+          <t>-9,6; 13,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 18,35</t>
+          <t>-9,88; 18,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,4; 32,63</t>
+          <t>3,09; 33,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 21,54</t>
+          <t>-12,83; 21,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 11,07</t>
+          <t>0,39; 11,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 10,92</t>
+          <t>1,16; 10,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 6,21</t>
+          <t>-3,53; 6,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 16,11</t>
+          <t>0,51; 16,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 15,04</t>
+          <t>1,47; 14,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 8,51</t>
+          <t>-4,49; 8,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 11,13</t>
+          <t>2,04; 11,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 10,77</t>
+          <t>2,35; 10,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 8,73</t>
+          <t>0,94; 8,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,57; 18,62</t>
+          <t>3,32; 18,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 15,71</t>
+          <t>3,25; 15,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 12,54</t>
+          <t>1,45; 12,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,44; 17,56</t>
+          <t>7,22; 17,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 12,7</t>
+          <t>3,6; 13,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 11,12</t>
+          <t>1,37; 11,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,28; 32,18</t>
+          <t>11,82; 31,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,03; 20,11</t>
+          <t>5,2; 20,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 17,29</t>
+          <t>1,92; 16,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,6; 12,03</t>
+          <t>3,27; 12,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,36; 14,73</t>
+          <t>7,26; 15,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 10,48</t>
+          <t>3,26; 9,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 20,47</t>
+          <t>5,24; 20,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,02; 21,23</t>
+          <t>9,77; 21,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,96; 14,17</t>
+          <t>4,22; 13,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,16</t>
+          <t>5,5; 10,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,36; 10,55</t>
+          <t>6,14; 10,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,15</t>
+          <t>2,76; 6,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,71; 16,36</t>
+          <t>8,59; 16,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,65; 15,04</t>
+          <t>8,51; 15,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,07; 10,08</t>
+          <t>3,76; 9,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P36B08_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 13,29</t>
+          <t>-7,11; 13,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 22,6</t>
+          <t>3,33; 23,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 13,26</t>
+          <t>-10,58; 14,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 14,79</t>
+          <t>1,79; 15,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 18,13</t>
+          <t>-8,67; 18,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,09; 33,37</t>
+          <t>4,13; 33,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 21,52</t>
+          <t>-14,16; 23,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 17,98</t>
+          <t>2,06; 18,74</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 11,0</t>
+          <t>0,91; 10,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 10,36</t>
+          <t>0,74; 10,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 6,36</t>
+          <t>-3,86; 6,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,6</t>
+          <t>-2,33; 2,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 16,18</t>
+          <t>1,38; 16,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 14,22</t>
+          <t>0,99; 14,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 8,81</t>
+          <t>-4,92; 9,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,74</t>
+          <t>-2,4; 2,65</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,04; 11,06</t>
+          <t>1,9; 11,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 10,71</t>
+          <t>2,39; 10,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 8,45</t>
+          <t>0,89; 8,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 3,51</t>
+          <t>-0,21; 3,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 18,54</t>
+          <t>3,02; 18,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,25; 15,59</t>
+          <t>3,3; 15,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 12,22</t>
+          <t>1,22; 12,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 3,72</t>
+          <t>-0,21; 3,67</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 17,35</t>
+          <t>7,77; 17,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 13,33</t>
+          <t>3,93; 13,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 11,16</t>
+          <t>1,27; 11,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 4,99</t>
+          <t>-1,34; 5,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,82; 31,83</t>
+          <t>12,78; 32,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,2; 20,81</t>
+          <t>5,71; 22,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 16,91</t>
+          <t>1,8; 17,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 5,46</t>
+          <t>-1,46; 5,71</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,27; 12,06</t>
+          <t>3,23; 11,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,26; 15,16</t>
+          <t>6,99; 14,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 9,96</t>
+          <t>3,03; 10,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 4,22</t>
+          <t>-0,02; 4,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,24; 20,9</t>
+          <t>5,11; 20,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,77; 21,78</t>
+          <t>9,2; 21,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,22; 13,44</t>
+          <t>3,87; 13,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 4,61</t>
+          <t>-0,0; 4,65</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,03</t>
+          <t>5,65; 10,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,14; 10,55</t>
+          <t>6,1; 10,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,98</t>
+          <t>2,83; 7,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,73</t>
+          <t>0,47; 2,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,59; 16,17</t>
+          <t>8,72; 16,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,51; 15,07</t>
+          <t>8,42; 14,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,76; 9,78</t>
+          <t>3,86; 10,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,91</t>
+          <t>0,5; 2,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P36B08_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,35</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,36</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>1,06%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 13,26</t>
+          <t>0,78; 9,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 23,35</t>
+          <t>2,28; 11,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 14,32</t>
+          <t>-2,84; 6,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 15,27</t>
+          <t>-1,17; 3,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 18,24</t>
+          <t>1,04; 14,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,13; 33,58</t>
+          <t>3,02; 15,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 23,26</t>
+          <t>-3,82; 8,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 18,74</t>
+          <t>-1,21; 3,9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,27%</t>
+          <t>1,03%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 10,9</t>
+          <t>1,9; 11,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 10,32</t>
+          <t>2,39; 10,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 6,96</t>
+          <t>0,89; 8,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,5</t>
+          <t>-1,25; 3,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 16,06</t>
+          <t>3,02; 18,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 14,19</t>
+          <t>3,3; 15,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 9,71</t>
+          <t>1,22; 12,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,65</t>
+          <t>-1,27; 3,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>12,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>8,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>2,51%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 11,07</t>
+          <t>7,77; 17,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 10,68</t>
+          <t>3,93; 13,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 8,66</t>
+          <t>1,27; 11,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 3,46</t>
+          <t>-0,87; 6,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 18,32</t>
+          <t>12,78; 32,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 15,63</t>
+          <t>5,71; 22,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 12,58</t>
+          <t>1,8; 17,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 3,67</t>
+          <t>-0,9; 7,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,62</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,49</t>
+          <t>11,03</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,78%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>2,53%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,77; 17,6</t>
+          <t>3,23; 11,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 13,91</t>
+          <t>6,99; 14,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 11,13</t>
+          <t>3,03; 10,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 5,19</t>
+          <t>0,25; 4,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,78; 32,23</t>
+          <t>5,11; 20,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 22,0</t>
+          <t>9,2; 21,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 17,34</t>
+          <t>3,87; 13,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 5,71</t>
+          <t>0,27; 5,13</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,03</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>1,56%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 11,8</t>
+          <t>5,65; 10,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,99; 14,84</t>
+          <t>6,1; 10,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,03; 10,19</t>
+          <t>2,83; 7,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 4,23</t>
+          <t>0,2; 2,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,11; 20,19</t>
+          <t>8,72; 16,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,2; 21,26</t>
+          <t>8,42; 14,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,87; 13,82</t>
+          <t>3,86; 10,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 4,65</t>
+          <t>0,22; 3,1</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,86</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,4</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,11</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,51</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>12,44%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>11,8%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>7,07%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>5,65; 10,17</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>6,1; 10,49</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 7,25</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 2,76</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>8,72; 16,46</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>8,42; 14,99</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>3,86; 10,26</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 2,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P36B08_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 9,87</t>
+          <t>0,95; 9,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 11,46</t>
+          <t>2,81; 11,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 6,1</t>
+          <t>-2,79; 6,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,61</t>
+          <t>-1,31; 3,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 14,19</t>
+          <t>1,23; 14,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 15,74</t>
+          <t>3,9; 16,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 8,43</t>
+          <t>-3,69; 9,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,9</t>
+          <t>-1,37; 3,66</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 11,07</t>
+          <t>2,2; 11,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 10,68</t>
+          <t>2,18; 10,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 8,66</t>
+          <t>0,86; 8,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 3,27</t>
+          <t>-1,37; 3,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 18,32</t>
+          <t>3,54; 18,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 15,63</t>
+          <t>2,98; 15,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 12,58</t>
+          <t>1,18; 12,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,46</t>
+          <t>-1,4; 3,29</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 17,6</t>
+          <t>7,27; 17,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 13,91</t>
+          <t>3,03; 13,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 11,13</t>
+          <t>1,74; 11,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 6,63</t>
+          <t>-0,81; 5,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,78; 32,23</t>
+          <t>11,66; 32,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 22,0</t>
+          <t>4,48; 21,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 17,34</t>
+          <t>2,55; 17,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 7,47</t>
+          <t>-0,84; 6,49</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 11,8</t>
+          <t>3,06; 11,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,99; 14,84</t>
+          <t>7,29; 14,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,03; 10,19</t>
+          <t>3,49; 10,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 4,73</t>
+          <t>0,04; 4,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,11; 20,19</t>
+          <t>4,79; 19,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,2; 21,26</t>
+          <t>9,76; 20,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 13,82</t>
+          <t>4,47; 14,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 5,13</t>
+          <t>0,04; 4,95</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,65; 10,17</t>
+          <t>5,62; 10,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,1; 10,49</t>
+          <t>6,41; 10,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,83; 7,25</t>
+          <t>2,86; 7,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,9</t>
+          <t>0,02; 2,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,72; 16,46</t>
+          <t>8,73; 16,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,42; 14,99</t>
+          <t>8,86; 14,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,86; 10,26</t>
+          <t>3,86; 10,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 3,1</t>
+          <t>0,01; 3,0</t>
         </is>
       </c>
     </row>
